--- a/trunk/doc/Statystyki/Statystyki - Etapy preprocessingu Ilości słów.xlsx
+++ b/trunk/doc/Statystyki/Statystyki - Etapy preprocessingu Ilości słów.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
-  <si>
-    <t>Ilośc słów w słowniku</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Przed</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Wszystkie</t>
   </si>
   <si>
-    <t>Ilośc słów w słowniku w poszczególnych kategoriach</t>
-  </si>
-  <si>
     <t>Kategorie</t>
   </si>
   <si>
@@ -123,19 +117,54 @@
     <t>Stop words</t>
   </si>
   <si>
-    <t>Steaminng</t>
-  </si>
-  <si>
     <t>Steaming</t>
+  </si>
+  <si>
+    <t>Występowanie słów w czasie preprocessing'u (1)</t>
+  </si>
+  <si>
+    <t>Występowanie słów w czasie preprocessing'u (2)</t>
+  </si>
+  <si>
+    <t>Występowanie słów w czasie preprocessing'u (3)</t>
+  </si>
+  <si>
+    <t>Steamming</t>
+  </si>
+  <si>
+    <t>Przed preprocessing'iem</t>
+  </si>
+  <si>
+    <t>Występowanie słów w czasie preprocessing'u</t>
+  </si>
+  <si>
+    <t>Występowanie słów w czasie preprocessing'u w zależności od kategorii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Przed</t>
+  </si>
+  <si>
+    <t>preprocessing'iem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po eliminacji </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -265,17 +294,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,7 +308,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -301,8 +335,140 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
-  <c:style val="34"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Występowanie słów</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>w poszczególnych etapach preprocessing'u</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24793872030256006"/>
+          <c:y val="1.7643153774020214E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -312,695 +478,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13229396325459319"/>
-          <c:y val="5.6030183727034097E-2"/>
-          <c:w val="0.70831846019247591"/>
-          <c:h val="0.79822543015456449"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$L$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Przed preprocessing'iem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$B$11:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>comp.os.ms-windows.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sci.med.cat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>talk.politics.mideast.cat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>comp.windows.x.cat</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sci.space.cat</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sci.crypt.cat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soc.religion.christian.cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>comp.graphics.cat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>talk.politics.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>talk.politics.guns.cat</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rec.sport.hockey.cat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>talk.religion.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>misc.forsale.cat</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rec.autos.cat</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>sci.electronics.cat</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>rec.motorcycles.cat</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>alt.atheism.cat</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>comp.sys.ibm.pc.hardware.cat</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>rec.sport.baseball.cat</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>comp.sys.mac.hardware.cat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Arkusz1!$C$11:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>23178</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21093</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18879</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19670</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18926</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17735</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18191</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17561</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15036</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15213</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14808</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14392</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14515</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13706</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14400</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13256</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$K$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Duże litery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$B$11:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>comp.os.ms-windows.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sci.med.cat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>talk.politics.mideast.cat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>comp.windows.x.cat</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sci.space.cat</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sci.crypt.cat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soc.religion.christian.cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>comp.graphics.cat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>talk.politics.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>talk.politics.guns.cat</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rec.sport.hockey.cat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>talk.religion.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>misc.forsale.cat</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rec.autos.cat</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>sci.electronics.cat</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>rec.motorcycles.cat</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>alt.atheism.cat</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>comp.sys.ibm.pc.hardware.cat</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>rec.sport.baseball.cat</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>comp.sys.mac.hardware.cat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Arkusz1!$D$11:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>20171</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17482</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15560</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15422</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13891</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15161</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12419</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11356</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11864</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11790</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11438</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12186</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10672</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10830</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$J$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stop words</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$B$11:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>comp.os.ms-windows.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sci.med.cat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>talk.politics.mideast.cat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>comp.windows.x.cat</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sci.space.cat</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sci.crypt.cat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soc.religion.christian.cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>comp.graphics.cat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>talk.politics.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>talk.politics.guns.cat</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rec.sport.hockey.cat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>talk.religion.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>misc.forsale.cat</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rec.autos.cat</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>sci.electronics.cat</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>rec.motorcycles.cat</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>alt.atheism.cat</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>comp.sys.ibm.pc.hardware.cat</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>rec.sport.baseball.cat</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>comp.sys.mac.hardware.cat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Arkusz1!$E$11:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>19866</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17156</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15237</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13579</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14836</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13830</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12107</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12459</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11058</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11549</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11485</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11121</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11865</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10367</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10516</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$I$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Steaminng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Arkusz1!$B$11:$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>comp.os.ms-windows.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sci.med.cat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>talk.politics.mideast.cat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>comp.windows.x.cat</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>sci.space.cat</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sci.crypt.cat</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>soc.religion.christian.cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>comp.graphics.cat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>talk.politics.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>talk.politics.guns.cat</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>rec.sport.hockey.cat</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>talk.religion.misc.cat</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>misc.forsale.cat</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rec.autos.cat</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>sci.electronics.cat</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>rec.motorcycles.cat</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>alt.atheism.cat</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>comp.sys.ibm.pc.hardware.cat</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>rec.sport.baseball.cat</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>comp.sys.mac.hardware.cat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Arkusz1!$F$11:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>17388</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12687</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12435</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12234</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10958</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10862</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10479</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10340</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9513</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8717</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8620</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8364</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8245</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="90090496"/>
-        <c:axId val="90137344"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="90090496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90137344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="90137344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90090496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.63819598979532455"/>
-          <c:y val="0.10359566214152942"/>
-          <c:w val="0.18132948667297583"/>
-          <c:h val="0.16949273256484426"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.74803149606299246" l="0.70866141732283505" r="0.70866141732283505" t="0.74803149606299246" header="0.31496062992126017" footer="0.31496062992126017"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10953367442673137"/>
-          <c:y val="5.6030183727034111E-2"/>
-          <c:w val="0.8711706188680105"/>
-          <c:h val="0.74172098279381748"/>
+          <c:x val="9.6969922554547422E-2"/>
+          <c:y val="0.13675657564081087"/>
+          <c:w val="0.87117061886801073"/>
+          <c:h val="0.74172098279381771"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1031,7 +512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$C$6:$F$6</c:f>
+              <c:f>Arkusz1!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1052,25 +533,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="84243584"/>
-        <c:axId val="84245120"/>
+        <c:axId val="86100224"/>
+        <c:axId val="86106112"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84243584"/>
+        <c:axId val="86100224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84245120"/>
+        <c:crossAx val="86106112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84245120"/>
+        <c:axId val="86106112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +559,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84243584"/>
+        <c:crossAx val="86100224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1087,16 +568,59 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Występowanie słów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>w poszczególnych etapach preprocessing'u</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>w zależności od kategorii</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1106,10 +630,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27073824335768965"/>
-          <c:y val="5.0925658550430013E-2"/>
-          <c:w val="0.59776622524992451"/>
-          <c:h val="0.80132002976760153"/>
+          <c:x val="0.23326129315802738"/>
+          <c:y val="0.17616096724371547"/>
+          <c:w val="0.69456563831160445"/>
+          <c:h val="0.70264381212276272"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1118,9 +642,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$I$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przed preprocessing'iem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1188,7 +723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$C$11:$C$30</c:f>
+              <c:f>Arkusz1!$C$12:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1259,9 +794,20 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$K$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duże litery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1329,7 +875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$11:$D$30</c:f>
+              <c:f>Arkusz1!$D$12:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1400,9 +946,20 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stop words</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1470,7 +1027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$11:$E$30</c:f>
+              <c:f>Arkusz1!$E$12:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1541,9 +1098,20 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$L$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steamming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$B$11:$B$30</c:f>
+              <c:f>Arkusz1!$B$12:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1611,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$11:$F$30</c:f>
+              <c:f>Arkusz1!$F$12:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1680,25 +1248,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94957952"/>
-        <c:axId val="86536576"/>
+        <c:axId val="85125760"/>
+        <c:axId val="86175744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94957952"/>
+        <c:axId val="85125760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86536576"/>
+        <c:crossAx val="86175744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86536576"/>
+        <c:axId val="86175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,21 +1274,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94957952"/>
+        <c:crossAx val="85125760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75089847375635421"/>
+          <c:y val="0.22041994750656169"/>
+          <c:w val="0.18196647550203765"/>
+          <c:h val="0.17408188597363958"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.74803149606299235" l="0.70866141732283494" r="0.70866141732283494" t="0.74803149606299235" header="0.31496062992126006" footer="0.31496062992126006"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1729,20 +1306,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1759,20 +1336,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1782,36 +1359,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Wykres 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1830,372 +1377,344 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>127113</v>
-          </cell>
-          <cell r="D6">
-            <v>97828</v>
-          </cell>
-          <cell r="E6">
-            <v>97490</v>
-          </cell>
-          <cell r="F6">
-            <v>75853</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>comp.os.ms-windows.misc.cat</v>
-          </cell>
-          <cell r="C11">
-            <v>23178</v>
-          </cell>
-          <cell r="D11">
-            <v>20171</v>
-          </cell>
-          <cell r="E11">
-            <v>19866</v>
-          </cell>
-          <cell r="F11">
-            <v>17388</v>
-          </cell>
-        </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>sci.med.cat</v>
+            <v>comp.os.ms-windows.misc.cat</v>
           </cell>
           <cell r="C12">
-            <v>21279</v>
+            <v>23178</v>
           </cell>
           <cell r="D12">
-            <v>17482</v>
+            <v>20171</v>
           </cell>
           <cell r="E12">
-            <v>17156</v>
+            <v>19866</v>
           </cell>
           <cell r="F12">
-            <v>12687</v>
+            <v>17388</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>talk.politics.mideast.cat</v>
+            <v>sci.med.cat</v>
           </cell>
           <cell r="C13">
-            <v>21093</v>
+            <v>21279</v>
           </cell>
           <cell r="D13">
-            <v>17767</v>
+            <v>17482</v>
           </cell>
           <cell r="E13">
-            <v>17441</v>
+            <v>17156</v>
           </cell>
           <cell r="F13">
-            <v>12435</v>
+            <v>12687</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>comp.windows.x.cat</v>
+            <v>talk.politics.mideast.cat</v>
           </cell>
           <cell r="C14">
-            <v>18879</v>
+            <v>21093</v>
           </cell>
           <cell r="D14">
-            <v>15336</v>
+            <v>17767</v>
           </cell>
           <cell r="E14">
-            <v>15025</v>
+            <v>17441</v>
           </cell>
           <cell r="F14">
-            <v>12234</v>
+            <v>12435</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>sci.space.cat</v>
+            <v>comp.windows.x.cat</v>
           </cell>
           <cell r="C15">
-            <v>19670</v>
+            <v>18879</v>
           </cell>
           <cell r="D15">
-            <v>15560</v>
+            <v>15336</v>
           </cell>
           <cell r="E15">
-            <v>15237</v>
+            <v>15025</v>
           </cell>
           <cell r="F15">
-            <v>10958</v>
+            <v>12234</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>sci.crypt.cat</v>
+            <v>sci.space.cat</v>
           </cell>
           <cell r="C16">
-            <v>18709</v>
+            <v>19670</v>
           </cell>
           <cell r="D16">
-            <v>15422</v>
+            <v>15560</v>
           </cell>
           <cell r="E16">
-            <v>15098</v>
+            <v>15237</v>
           </cell>
           <cell r="F16">
-            <v>10901</v>
+            <v>10958</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>soc.religion.christian.cat</v>
+            <v>sci.crypt.cat</v>
           </cell>
           <cell r="C17">
-            <v>18926</v>
+            <v>18709</v>
           </cell>
           <cell r="D17">
-            <v>16104</v>
+            <v>15422</v>
           </cell>
           <cell r="E17">
-            <v>15776</v>
+            <v>15098</v>
           </cell>
           <cell r="F17">
-            <v>10862</v>
+            <v>10901</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>comp.graphics.cat</v>
+            <v>soc.religion.christian.cat</v>
           </cell>
           <cell r="C18">
-            <v>17735</v>
+            <v>18926</v>
           </cell>
           <cell r="D18">
-            <v>13891</v>
+            <v>16104</v>
           </cell>
           <cell r="E18">
-            <v>13579</v>
+            <v>15776</v>
           </cell>
           <cell r="F18">
-            <v>10479</v>
+            <v>10862</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>talk.politics.misc.cat</v>
+            <v>comp.graphics.cat</v>
           </cell>
           <cell r="C19">
-            <v>18191</v>
+            <v>17735</v>
           </cell>
           <cell r="D19">
-            <v>15161</v>
+            <v>13891</v>
           </cell>
           <cell r="E19">
-            <v>14836</v>
+            <v>13579</v>
           </cell>
           <cell r="F19">
-            <v>10340</v>
+            <v>10479</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>talk.politics.guns.cat</v>
+            <v>talk.politics.misc.cat</v>
           </cell>
           <cell r="C20">
-            <v>17561</v>
+            <v>18191</v>
           </cell>
           <cell r="D20">
-            <v>14153</v>
+            <v>15161</v>
           </cell>
           <cell r="E20">
-            <v>13830</v>
+            <v>14836</v>
           </cell>
           <cell r="F20">
-            <v>9806</v>
+            <v>10340</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>rec.sport.hockey.cat</v>
+            <v>talk.politics.guns.cat</v>
           </cell>
           <cell r="C21">
-            <v>15036</v>
+            <v>17561</v>
           </cell>
           <cell r="D21">
-            <v>12419</v>
+            <v>14153</v>
           </cell>
           <cell r="E21">
-            <v>12107</v>
+            <v>13830</v>
           </cell>
           <cell r="F21">
-            <v>9513</v>
+            <v>9806</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>talk.religion.misc.cat</v>
+            <v>rec.sport.hockey.cat</v>
           </cell>
           <cell r="C22">
-            <v>15213</v>
+            <v>15036</v>
           </cell>
           <cell r="D22">
-            <v>12782</v>
+            <v>12419</v>
           </cell>
           <cell r="E22">
-            <v>12459</v>
+            <v>12107</v>
           </cell>
           <cell r="F22">
-            <v>9022</v>
+            <v>9513</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>misc.forsale.cat</v>
+            <v>talk.religion.misc.cat</v>
           </cell>
           <cell r="C23">
-            <v>14808</v>
+            <v>15213</v>
           </cell>
           <cell r="D23">
-            <v>11356</v>
+            <v>12782</v>
           </cell>
           <cell r="E23">
-            <v>11058</v>
+            <v>12459</v>
           </cell>
           <cell r="F23">
-            <v>9017</v>
+            <v>9022</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>rec.autos.cat</v>
+            <v>misc.forsale.cat</v>
           </cell>
           <cell r="C24">
-            <v>14392</v>
+            <v>14808</v>
           </cell>
           <cell r="D24">
-            <v>11864</v>
+            <v>11356</v>
           </cell>
           <cell r="E24">
-            <v>11549</v>
+            <v>11058</v>
           </cell>
           <cell r="F24">
-            <v>8717</v>
+            <v>9017</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>sci.electronics.cat</v>
+            <v>rec.autos.cat</v>
           </cell>
           <cell r="C25">
-            <v>14515</v>
+            <v>14392</v>
           </cell>
           <cell r="D25">
-            <v>11790</v>
+            <v>11864</v>
           </cell>
           <cell r="E25">
-            <v>11485</v>
+            <v>11549</v>
           </cell>
           <cell r="F25">
-            <v>8620</v>
+            <v>8717</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>rec.motorcycles.cat</v>
+            <v>sci.electronics.cat</v>
           </cell>
           <cell r="C26">
-            <v>13706</v>
+            <v>14515</v>
           </cell>
           <cell r="D26">
-            <v>11438</v>
+            <v>11790</v>
           </cell>
           <cell r="E26">
-            <v>11121</v>
+            <v>11485</v>
           </cell>
           <cell r="F26">
-            <v>8464</v>
+            <v>8620</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>alt.atheism.cat</v>
+            <v>rec.motorcycles.cat</v>
           </cell>
           <cell r="C27">
-            <v>14400</v>
+            <v>13706</v>
           </cell>
           <cell r="D27">
-            <v>12186</v>
+            <v>11438</v>
           </cell>
           <cell r="E27">
-            <v>11865</v>
+            <v>11121</v>
           </cell>
           <cell r="F27">
-            <v>8364</v>
+            <v>8464</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>comp.sys.ibm.pc.hardware.cat</v>
+            <v>alt.atheism.cat</v>
           </cell>
           <cell r="C28">
-            <v>13500</v>
+            <v>14400</v>
           </cell>
           <cell r="D28">
-            <v>10672</v>
+            <v>12186</v>
           </cell>
           <cell r="E28">
-            <v>10367</v>
+            <v>11865</v>
           </cell>
           <cell r="F28">
-            <v>8245</v>
+            <v>8364</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>rec.sport.baseball.cat</v>
+            <v>comp.sys.ibm.pc.hardware.cat</v>
           </cell>
           <cell r="C29">
-            <v>13256</v>
+            <v>13500</v>
           </cell>
           <cell r="D29">
-            <v>10830</v>
+            <v>10672</v>
           </cell>
           <cell r="E29">
-            <v>10516</v>
+            <v>10367</v>
           </cell>
           <cell r="F29">
-            <v>8110</v>
+            <v>8245</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
+            <v>rec.sport.baseball.cat</v>
+          </cell>
+          <cell r="C30">
+            <v>13256</v>
+          </cell>
+          <cell r="D30">
+            <v>10830</v>
+          </cell>
+          <cell r="E30">
+            <v>10516</v>
+          </cell>
+          <cell r="F30">
+            <v>8110</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
             <v>comp.sys.mac.hardware.cat</v>
           </cell>
-          <cell r="C30">
+          <cell r="C31">
             <v>12981</v>
           </cell>
-          <cell r="D30">
+          <cell r="D31">
             <v>10451</v>
           </cell>
-          <cell r="E30">
+          <cell r="E31">
             <v>10139</v>
           </cell>
-          <cell r="F30">
+          <cell r="F31">
             <v>7815</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v xml:space="preserve"> Przed preprocessing'iem</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v>Duże litery</v>
-          </cell>
-          <cell r="K41" t="str">
-            <v>Stop words</v>
-          </cell>
-          <cell r="L41" t="str">
-            <v>Steaminng</v>
           </cell>
         </row>
         <row r="63">
@@ -2213,8 +1732,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2505,516 +2024,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L63"/>
+  <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4360491</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4360491</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2220283</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2220283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4360491</v>
-      </c>
-      <c r="D6">
-        <v>4360491</v>
-      </c>
-      <c r="E6">
-        <v>2220283</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2220283</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>347558</v>
+      </c>
+      <c r="D12" s="5">
+        <v>347558</v>
+      </c>
+      <c r="E12" s="5">
+        <v>184230</v>
+      </c>
+      <c r="F12" s="5">
+        <v>184230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>359790</v>
+      </c>
+      <c r="D13" s="5">
+        <v>359790</v>
+      </c>
+      <c r="E13" s="5">
+        <v>177430</v>
+      </c>
+      <c r="F13" s="5">
+        <v>177430</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5">
+        <v>321015</v>
+      </c>
+      <c r="D14" s="5">
+        <v>321015</v>
+      </c>
+      <c r="E14" s="5">
+        <v>143743</v>
+      </c>
+      <c r="F14" s="5">
+        <v>143743</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>275697</v>
+      </c>
+      <c r="D15" s="5">
+        <v>275697</v>
+      </c>
+      <c r="E15" s="5">
+        <v>139755</v>
+      </c>
+      <c r="F15" s="5">
+        <v>139755</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>280574</v>
+      </c>
+      <c r="D16" s="5">
+        <v>280574</v>
+      </c>
+      <c r="E16" s="5">
+        <v>132943</v>
+      </c>
+      <c r="F16" s="5">
+        <v>132943</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>243282</v>
+      </c>
+      <c r="D17" s="5">
+        <v>243282</v>
+      </c>
+      <c r="E17" s="5">
+        <v>127088</v>
+      </c>
+      <c r="F17" s="5">
+        <v>127088</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <v>249776</v>
+      </c>
+      <c r="D18" s="5">
+        <v>249776</v>
+      </c>
+      <c r="E18" s="5">
+        <v>122854</v>
+      </c>
+      <c r="F18" s="5">
+        <v>122854</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <v>228588</v>
+      </c>
+      <c r="D19" s="5">
+        <v>228588</v>
+      </c>
+      <c r="E19" s="5">
+        <v>122501</v>
+      </c>
+      <c r="F19" s="5">
+        <v>122501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
+        <v>221180</v>
+      </c>
+      <c r="D20" s="5">
+        <v>221180</v>
+      </c>
+      <c r="E20" s="5">
+        <v>116999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>116999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <v>201499</v>
+      </c>
+      <c r="D21" s="5">
+        <v>201499</v>
+      </c>
+      <c r="E21" s="5">
+        <v>111865</v>
+      </c>
+      <c r="F21" s="5">
+        <v>111865</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>190849</v>
+      </c>
+      <c r="D22" s="5">
+        <v>190849</v>
+      </c>
+      <c r="E22" s="5">
+        <v>107238</v>
+      </c>
+      <c r="F22" s="5">
+        <v>107238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="10"/>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C23" s="5">
+        <v>198956</v>
+      </c>
+      <c r="D23" s="5">
+        <v>198956</v>
+      </c>
+      <c r="E23" s="5">
+        <v>92629</v>
+      </c>
+      <c r="F23" s="5">
+        <v>92629</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>174183</v>
+      </c>
+      <c r="D24" s="5">
+        <v>174183</v>
+      </c>
+      <c r="E24" s="5">
+        <v>89571</v>
+      </c>
+      <c r="F24" s="5">
+        <v>89571</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5">
+        <v>187208</v>
+      </c>
+      <c r="D25" s="5">
+        <v>187208</v>
+      </c>
+      <c r="E25" s="5">
+        <v>87525</v>
+      </c>
+      <c r="F25" s="5">
+        <v>87525</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>168075</v>
+      </c>
+      <c r="D26" s="5">
+        <v>168075</v>
+      </c>
+      <c r="E26" s="5">
+        <v>83653</v>
+      </c>
+      <c r="F26" s="5">
+        <v>83653</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5">
+        <v>159800</v>
+      </c>
+      <c r="D27" s="5">
+        <v>159800</v>
+      </c>
+      <c r="E27" s="5">
+        <v>83046</v>
+      </c>
+      <c r="F27" s="5">
+        <v>83046</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5">
+        <v>155181</v>
+      </c>
+      <c r="D28" s="5">
+        <v>155181</v>
+      </c>
+      <c r="E28" s="5">
+        <v>80095</v>
+      </c>
+      <c r="F28" s="5">
+        <v>80095</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>151998</v>
+      </c>
+      <c r="D29" s="5">
+        <v>151998</v>
+      </c>
+      <c r="E29" s="5">
+        <v>79389</v>
+      </c>
+      <c r="F29" s="5">
+        <v>79389</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5">
+        <v>139691</v>
+      </c>
+      <c r="D30" s="5">
+        <v>139691</v>
+      </c>
+      <c r="E30" s="5">
+        <v>72161</v>
+      </c>
+      <c r="F30" s="5">
+        <v>72161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4">
+        <v>105591</v>
+      </c>
+      <c r="D31" s="4">
+        <v>105591</v>
+      </c>
+      <c r="E31" s="4">
+        <v>65568</v>
+      </c>
+      <c r="F31" s="4">
+        <v>65568</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="40" spans="2:12">
+      <c r="I40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>347558</v>
-      </c>
-      <c r="D11">
-        <v>347558</v>
-      </c>
-      <c r="E11">
-        <v>184230</v>
-      </c>
-      <c r="F11" s="8">
-        <v>184230</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>359790</v>
-      </c>
-      <c r="D12">
-        <v>359790</v>
-      </c>
-      <c r="E12">
-        <v>177430</v>
-      </c>
-      <c r="F12" s="8">
-        <v>177430</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>321015</v>
-      </c>
-      <c r="D13">
-        <v>321015</v>
-      </c>
-      <c r="E13">
-        <v>143743</v>
-      </c>
-      <c r="F13" s="8">
-        <v>143743</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>275697</v>
-      </c>
-      <c r="D14">
-        <v>275697</v>
-      </c>
-      <c r="E14">
-        <v>139755</v>
-      </c>
-      <c r="F14" s="8">
-        <v>139755</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="8" t="s">
+      <c r="K40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" thickBot="1">
+      <c r="I41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>280574</v>
-      </c>
-      <c r="D15">
-        <v>280574</v>
-      </c>
-      <c r="E15">
-        <v>132943</v>
-      </c>
-      <c r="F15" s="8">
-        <v>132943</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>243282</v>
-      </c>
-      <c r="D16">
-        <v>243282</v>
-      </c>
-      <c r="E16">
-        <v>127088</v>
-      </c>
-      <c r="F16" s="8">
-        <v>127088</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>249776</v>
-      </c>
-      <c r="D17">
-        <v>249776</v>
-      </c>
-      <c r="E17">
-        <v>122854</v>
-      </c>
-      <c r="F17" s="8">
-        <v>122854</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>228588</v>
-      </c>
-      <c r="D18">
-        <v>228588</v>
-      </c>
-      <c r="E18">
-        <v>122501</v>
-      </c>
-      <c r="F18" s="8">
-        <v>122501</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>221180</v>
-      </c>
-      <c r="D19">
-        <v>221180</v>
-      </c>
-      <c r="E19">
-        <v>116999</v>
-      </c>
-      <c r="F19" s="8">
-        <v>116999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>201499</v>
-      </c>
-      <c r="D20">
-        <v>201499</v>
-      </c>
-      <c r="E20">
-        <v>111865</v>
-      </c>
-      <c r="F20" s="8">
-        <v>111865</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>190849</v>
-      </c>
-      <c r="D21">
-        <v>190849</v>
-      </c>
-      <c r="E21">
-        <v>107238</v>
-      </c>
-      <c r="F21" s="8">
-        <v>107238</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>198956</v>
-      </c>
-      <c r="D22">
-        <v>198956</v>
-      </c>
-      <c r="E22">
-        <v>92629</v>
-      </c>
-      <c r="F22" s="8">
-        <v>92629</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>174183</v>
-      </c>
-      <c r="D23">
-        <v>174183</v>
-      </c>
-      <c r="E23">
-        <v>89571</v>
-      </c>
-      <c r="F23" s="8">
-        <v>89571</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="8" t="s">
+      <c r="J41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>187208</v>
-      </c>
-      <c r="D24">
-        <v>187208</v>
-      </c>
-      <c r="E24">
-        <v>87525</v>
-      </c>
-      <c r="F24" s="8">
-        <v>87525</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>168075</v>
-      </c>
-      <c r="D25">
-        <v>168075</v>
-      </c>
-      <c r="E25">
-        <v>83653</v>
-      </c>
-      <c r="F25" s="8">
-        <v>83653</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>159800</v>
-      </c>
-      <c r="D26">
-        <v>159800</v>
-      </c>
-      <c r="E26">
-        <v>83046</v>
-      </c>
-      <c r="F26" s="8">
-        <v>83046</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>155181</v>
-      </c>
-      <c r="D27">
-        <v>155181</v>
-      </c>
-      <c r="E27">
-        <v>80095</v>
-      </c>
-      <c r="F27" s="8">
-        <v>80095</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>151998</v>
-      </c>
-      <c r="D28">
-        <v>151998</v>
-      </c>
-      <c r="E28">
-        <v>79389</v>
-      </c>
-      <c r="F28" s="8">
-        <v>79389</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>139691</v>
-      </c>
-      <c r="D29">
-        <v>139691</v>
-      </c>
-      <c r="E29">
-        <v>72161</v>
-      </c>
-      <c r="F29" s="7">
-        <v>72161</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>105591</v>
-      </c>
-      <c r="D30">
-        <v>105591</v>
-      </c>
-      <c r="E30">
-        <v>65568</v>
-      </c>
-      <c r="F30">
-        <v>65568</v>
-      </c>
-    </row>
-    <row r="39" spans="9:12" ht="15.75" thickBot="1"/>
-    <row r="40" spans="9:12">
-      <c r="I40" s="4" t="s">
+      <c r="K41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="9:12" ht="15.75" thickBot="1"/>
+    <row r="62" spans="9:12">
+      <c r="I62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="9:12" ht="15.75" thickBot="1">
-      <c r="I41" s="5" t="s">
+      <c r="K62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="9:12" ht="15.75" thickBot="1">
+      <c r="I63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="9" t="s">
+      <c r="K63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="9:11" ht="15.75" thickBot="1"/>
-    <row r="62" spans="9:11">
-      <c r="I62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11" ht="15.75" thickBot="1">
-      <c r="I63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="B9:F30">
+  <sortState ref="B10:F31">
     <sortCondition descending="1" ref="F9:F30"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C8:F8"/>
+  <mergeCells count="5">
+    <mergeCell ref="B33:F34"/>
+    <mergeCell ref="B65:F66"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
